--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Timp3-Kdr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Timp3-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>102.881241948902</v>
+        <v>114.380483</v>
       </c>
       <c r="H2">
-        <v>102.881241948902</v>
+        <v>343.141449</v>
       </c>
       <c r="I2">
-        <v>0.6594071714250275</v>
+        <v>0.6536977130169467</v>
       </c>
       <c r="J2">
-        <v>0.6594071714250275</v>
+        <v>0.6536977130169466</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.890361207483</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N2">
-        <v>127.890361207483</v>
+        <v>418.183891</v>
       </c>
       <c r="O2">
-        <v>0.9283285166052262</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P2">
-        <v>0.9283285166052262</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q2">
-        <v>13157.51919431953</v>
+        <v>15944.02514513312</v>
       </c>
       <c r="R2">
-        <v>13157.51919431953</v>
+        <v>143496.226306198</v>
       </c>
       <c r="S2">
-        <v>0.6121464812878439</v>
+        <v>0.6019099348993785</v>
       </c>
       <c r="T2">
-        <v>0.6121464812878439</v>
+        <v>0.6019099348993783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>102.881241948902</v>
+        <v>114.380483</v>
       </c>
       <c r="H3">
-        <v>102.881241948902</v>
+        <v>343.141449</v>
       </c>
       <c r="I3">
-        <v>0.6594071714250275</v>
+        <v>0.6536977130169467</v>
       </c>
       <c r="J3">
-        <v>0.6594071714250275</v>
+        <v>0.6536977130169466</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.50184202892109</v>
+        <v>0.050239</v>
       </c>
       <c r="N3">
-        <v>3.50184202892109</v>
+        <v>0.150717</v>
       </c>
       <c r="O3">
-        <v>0.02541911513425251</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P3">
-        <v>0.02541911513425251</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q3">
-        <v>360.2738570442645</v>
+        <v>5.746361085437001</v>
       </c>
       <c r="R3">
-        <v>360.2738570442645</v>
+        <v>51.717249768933</v>
       </c>
       <c r="S3">
-        <v>0.01676154681080455</v>
+        <v>0.000216933415204723</v>
       </c>
       <c r="T3">
-        <v>0.01676154681080455</v>
+        <v>0.0002169334152047229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>102.881241948902</v>
+        <v>114.380483</v>
       </c>
       <c r="H4">
-        <v>102.881241948902</v>
+        <v>343.141449</v>
       </c>
       <c r="I4">
-        <v>0.6594071714250275</v>
+        <v>0.6536977130169467</v>
       </c>
       <c r="J4">
-        <v>0.6594071714250275</v>
+        <v>0.6536977130169466</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.14098823574429</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N4">
-        <v>5.14098823574429</v>
+        <v>12.662099</v>
       </c>
       <c r="O4">
-        <v>0.03731732350830338</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P4">
-        <v>0.03731732350830338</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q4">
-        <v>528.9112545380672</v>
+        <v>482.7656664712724</v>
       </c>
       <c r="R4">
-        <v>528.9112545380672</v>
+        <v>4344.890998241451</v>
       </c>
       <c r="S4">
-        <v>0.02460731073976301</v>
+        <v>0.01822509988740692</v>
       </c>
       <c r="T4">
-        <v>0.02460731073976301</v>
+        <v>0.01822509988740691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>102.881241948902</v>
+        <v>114.380483</v>
       </c>
       <c r="H5">
-        <v>102.881241948902</v>
+        <v>343.141449</v>
       </c>
       <c r="I5">
-        <v>0.6594071714250275</v>
+        <v>0.6536977130169467</v>
       </c>
       <c r="J5">
-        <v>0.6594071714250275</v>
+        <v>0.6536977130169466</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.806379720358944</v>
+        <v>6.099343</v>
       </c>
       <c r="N5">
-        <v>0.806379720358944</v>
+        <v>18.298029</v>
       </c>
       <c r="O5">
-        <v>0.005853336268296935</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P5">
-        <v>0.005853336268296935</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q5">
-        <v>82.96134711293645</v>
+        <v>697.6457983226691</v>
       </c>
       <c r="R5">
-        <v>82.96134711293645</v>
+        <v>6278.812184904022</v>
       </c>
       <c r="S5">
-        <v>0.003859731912077208</v>
+        <v>0.02633713464629115</v>
       </c>
       <c r="T5">
-        <v>0.003859731912077208</v>
+        <v>0.02633713464629114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>102.881241948902</v>
+        <v>114.380483</v>
       </c>
       <c r="H6">
-        <v>102.881241948902</v>
+        <v>343.141449</v>
       </c>
       <c r="I6">
-        <v>0.6594071714250275</v>
+        <v>0.6536977130169467</v>
       </c>
       <c r="J6">
-        <v>0.6594071714250275</v>
+        <v>0.6536977130169466</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.424548857538132</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N6">
-        <v>0.424548857538132</v>
+        <v>2.483471</v>
       </c>
       <c r="O6">
-        <v>0.00308170848392097</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P6">
-        <v>0.00308170848392097</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q6">
-        <v>43.67811373151049</v>
+        <v>94.68687083216435</v>
       </c>
       <c r="R6">
-        <v>43.67811373151049</v>
+        <v>852.181837489479</v>
       </c>
       <c r="S6">
-        <v>0.002032100674538836</v>
+        <v>0.003574565879044094</v>
       </c>
       <c r="T6">
-        <v>0.002032100674538836</v>
+        <v>0.003574565879044092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.2356835174794</v>
+        <v>114.380483</v>
       </c>
       <c r="H7">
-        <v>15.2356835174794</v>
+        <v>343.141449</v>
       </c>
       <c r="I7">
-        <v>0.09765161056257278</v>
+        <v>0.6536977130169467</v>
       </c>
       <c r="J7">
-        <v>0.09765161056257278</v>
+        <v>0.6536977130169466</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.890361207483</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N7">
-        <v>127.890361207483</v>
+        <v>2.385842</v>
       </c>
       <c r="O7">
-        <v>0.9283285166052262</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P7">
-        <v>0.9283285166052262</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q7">
-        <v>1948.497068293336</v>
+        <v>90.96458677389535</v>
       </c>
       <c r="R7">
-        <v>1948.497068293336</v>
+        <v>818.6812809650581</v>
       </c>
       <c r="S7">
-        <v>0.09065277477766442</v>
+        <v>0.003434044289621389</v>
       </c>
       <c r="T7">
-        <v>0.09065277477766442</v>
+        <v>0.003434044289621387</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.2356835174794</v>
+        <v>15.70856733333333</v>
       </c>
       <c r="H8">
-        <v>15.2356835174794</v>
+        <v>47.125702</v>
       </c>
       <c r="I8">
-        <v>0.09765161056257278</v>
+        <v>0.08977628238003432</v>
       </c>
       <c r="J8">
-        <v>0.09765161056257278</v>
+        <v>0.08977628238003432</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.50184202892109</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N8">
-        <v>3.50184202892109</v>
+        <v>418.183891</v>
       </c>
       <c r="O8">
-        <v>0.02541911513425251</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P8">
-        <v>0.02541911513425251</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q8">
-        <v>53.35295688084967</v>
+        <v>2189.689936496276</v>
       </c>
       <c r="R8">
-        <v>53.35295688084967</v>
+        <v>19707.20942846648</v>
       </c>
       <c r="S8">
-        <v>0.002482217531935226</v>
+        <v>0.08266395186466531</v>
       </c>
       <c r="T8">
-        <v>0.002482217531935226</v>
+        <v>0.0826639518646653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.2356835174794</v>
+        <v>15.70856733333333</v>
       </c>
       <c r="H9">
-        <v>15.2356835174794</v>
+        <v>47.125702</v>
       </c>
       <c r="I9">
-        <v>0.09765161056257278</v>
+        <v>0.08977628238003432</v>
       </c>
       <c r="J9">
-        <v>0.09765161056257278</v>
+        <v>0.08977628238003432</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>5.14098823574429</v>
+        <v>0.050239</v>
       </c>
       <c r="N9">
-        <v>5.14098823574429</v>
+        <v>0.150717</v>
       </c>
       <c r="O9">
-        <v>0.03731732350830338</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P9">
-        <v>0.03731732350830338</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q9">
-        <v>78.32646972688478</v>
+        <v>0.7891827142593334</v>
       </c>
       <c r="R9">
-        <v>78.32646972688478</v>
+        <v>7.102644428334</v>
       </c>
       <c r="S9">
-        <v>0.003644096742470384</v>
+        <v>2.979278518690421E-05</v>
       </c>
       <c r="T9">
-        <v>0.003644096742470384</v>
+        <v>2.97927851869042E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.2356835174794</v>
+        <v>15.70856733333333</v>
       </c>
       <c r="H10">
-        <v>15.2356835174794</v>
+        <v>47.125702</v>
       </c>
       <c r="I10">
-        <v>0.09765161056257278</v>
+        <v>0.08977628238003432</v>
       </c>
       <c r="J10">
-        <v>0.09765161056257278</v>
+        <v>0.08977628238003432</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.806379720358944</v>
+        <v>4.220699666666667</v>
       </c>
       <c r="N10">
-        <v>0.806379720358944</v>
+        <v>12.662099</v>
       </c>
       <c r="O10">
-        <v>0.005853336268296935</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="P10">
-        <v>0.005853336268296935</v>
+        <v>0.02788001170035368</v>
       </c>
       <c r="Q10">
-        <v>12.28574621430241</v>
+        <v>66.30114490761089</v>
       </c>
       <c r="R10">
-        <v>12.28574621430241</v>
+        <v>596.7103041684981</v>
       </c>
       <c r="S10">
-        <v>0.0005715877137635153</v>
+        <v>0.002502963803169613</v>
       </c>
       <c r="T10">
-        <v>0.0005715877137635153</v>
+        <v>0.002502963803169612</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.2356835174794</v>
+        <v>15.70856733333333</v>
       </c>
       <c r="H11">
-        <v>15.2356835174794</v>
+        <v>47.125702</v>
       </c>
       <c r="I11">
-        <v>0.09765161056257278</v>
+        <v>0.08977628238003432</v>
       </c>
       <c r="J11">
-        <v>0.09765161056257278</v>
+        <v>0.08977628238003432</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.424548857538132</v>
+        <v>6.099343</v>
       </c>
       <c r="N11">
-        <v>0.424548857538132</v>
+        <v>18.298029</v>
       </c>
       <c r="O11">
-        <v>0.00308170848392097</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="P11">
-        <v>0.00308170848392097</v>
+        <v>0.04028947038033828</v>
       </c>
       <c r="Q11">
-        <v>6.468292031158427</v>
+        <v>95.81194020459534</v>
       </c>
       <c r="R11">
-        <v>6.468292031158427</v>
+        <v>862.3074618413581</v>
       </c>
       <c r="S11">
-        <v>0.0003009337967392271</v>
+        <v>0.003617038869807279</v>
       </c>
       <c r="T11">
-        <v>0.0003009337967392271</v>
+        <v>0.003617038869807278</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.9038859642375</v>
+        <v>15.70856733333333</v>
       </c>
       <c r="H12">
-        <v>37.9038859642375</v>
+        <v>47.125702</v>
       </c>
       <c r="I12">
-        <v>0.2429412180123998</v>
+        <v>0.08977628238003432</v>
       </c>
       <c r="J12">
-        <v>0.2429412180123998</v>
+        <v>0.08977628238003432</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>127.890361207483</v>
+        <v>0.8278236666666666</v>
       </c>
       <c r="N12">
-        <v>127.890361207483</v>
+        <v>2.483471</v>
       </c>
       <c r="O12">
-        <v>0.9283285166052262</v>
+        <v>0.005468224544563193</v>
       </c>
       <c r="P12">
-        <v>0.9283285166052262</v>
+        <v>0.005468224544563191</v>
       </c>
       <c r="Q12">
-        <v>4847.541667133579</v>
+        <v>13.00392380796022</v>
       </c>
       <c r="R12">
-        <v>4847.541667133579</v>
+        <v>117.035314271642</v>
       </c>
       <c r="S12">
-        <v>0.2255292605397179</v>
+        <v>0.0004909168708301398</v>
       </c>
       <c r="T12">
-        <v>0.2255292605397179</v>
+        <v>0.0004909168708301396</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.9038859642375</v>
+        <v>15.70856733333333</v>
       </c>
       <c r="H13">
-        <v>37.9038859642375</v>
+        <v>47.125702</v>
       </c>
       <c r="I13">
-        <v>0.2429412180123998</v>
+        <v>0.08977628238003432</v>
       </c>
       <c r="J13">
-        <v>0.2429412180123998</v>
+        <v>0.08977628238003432</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.50184202892109</v>
+        <v>0.7952806666666667</v>
       </c>
       <c r="N13">
-        <v>3.50184202892109</v>
+        <v>2.385842</v>
       </c>
       <c r="O13">
-        <v>0.02541911513425251</v>
+        <v>0.005253260369800871</v>
       </c>
       <c r="P13">
-        <v>0.02541911513425251</v>
+        <v>0.00525326036980087</v>
       </c>
       <c r="Q13">
-        <v>132.7334209289991</v>
+        <v>12.49271990123156</v>
       </c>
       <c r="R13">
-        <v>132.7334209289991</v>
+        <v>112.434479111084</v>
       </c>
       <c r="S13">
-        <v>0.00617535079151273</v>
+        <v>0.0004716181863750865</v>
       </c>
       <c r="T13">
-        <v>0.00617535079151273</v>
+        <v>0.0004716181863750864</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>37.9038859642375</v>
+        <v>0.1510706666666667</v>
       </c>
       <c r="H14">
-        <v>37.9038859642375</v>
+        <v>0.453212</v>
       </c>
       <c r="I14">
-        <v>0.2429412180123998</v>
+        <v>0.0008633863637727903</v>
       </c>
       <c r="J14">
-        <v>0.2429412180123998</v>
+        <v>0.0008633863637727903</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.14098823574429</v>
+        <v>139.3946303333333</v>
       </c>
       <c r="N14">
-        <v>5.14098823574429</v>
+        <v>418.183891</v>
       </c>
       <c r="O14">
-        <v>0.03731732350830338</v>
+        <v>0.9207771771472824</v>
       </c>
       <c r="P14">
-        <v>0.03731732350830338</v>
+        <v>0.9207771771472822</v>
       </c>
       <c r="Q14">
-        <v>194.8634318311381</v>
+        <v>21.05843973421022</v>
       </c>
       <c r="R14">
-        <v>194.8634318311381</v>
+        <v>189.525957607892</v>
       </c>
       <c r="S14">
-        <v>0.009065916026069983</v>
+        <v>0.0007949864588221665</v>
       </c>
       <c r="T14">
-        <v>0.009065916026069983</v>
+        <v>0.0007949864588221664</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>37.9038859642375</v>
+        <v>0.1510706666666667</v>
       </c>
       <c r="H15">
-        <v>37.9038859642375</v>
+        <v>0.453212</v>
       </c>
       <c r="I15">
-        <v>0.2429412180123998</v>
+        <v>0.0008633863637727903</v>
       </c>
       <c r="J15">
-        <v>0.2429412180123998</v>
+        <v>0.0008633863637727903</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.806379720358944</v>
+        <v>0.050239</v>
       </c>
       <c r="N15">
-        <v>0.806379720358944</v>
+        <v>0.150717</v>
       </c>
       <c r="O15">
-        <v>0.005853336268296935</v>
+        <v>0.0003318558576616883</v>
       </c>
       <c r="P15">
-        <v>0.005853336268296935</v>
+        <v>0.0003318558576616882</v>
       </c>
       <c r="Q15">
-        <v>30.56492496435914</v>
+        <v>0.007589639222666666</v>
       </c>
       <c r="R15">
-        <v>30.56492496435914</v>
+        <v>0.06830675300399999</v>
       </c>
       <c r="S15">
-        <v>0.001422016642456212</v>
+        <v>2.865198222432257E-07</v>
       </c>
       <c r="T15">
-        <v>0.001422016642456212</v>
+        <v>2.865198222432257E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,619 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1510706666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.453212</v>
+      </c>
+      <c r="I16">
+        <v>0.0008633863637727903</v>
+      </c>
+      <c r="J16">
+        <v>0.0008633863637727903</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.220699666666667</v>
+      </c>
+      <c r="N16">
+        <v>12.662099</v>
+      </c>
+      <c r="O16">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="P16">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="Q16">
+        <v>0.637623912443111</v>
+      </c>
+      <c r="R16">
+        <v>5.738615211988</v>
+      </c>
+      <c r="S16">
+        <v>2.407122192391121E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.407122192391121E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1510706666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.453212</v>
+      </c>
+      <c r="I17">
+        <v>0.0008633863637727903</v>
+      </c>
+      <c r="J17">
+        <v>0.0008633863637727903</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.099343</v>
+      </c>
+      <c r="N17">
+        <v>18.298029</v>
+      </c>
+      <c r="O17">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="P17">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="Q17">
+        <v>0.9214318132386666</v>
+      </c>
+      <c r="R17">
+        <v>8.292886319148</v>
+      </c>
+      <c r="S17">
+        <v>3.478537933001181E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.47853793300118E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1510706666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.453212</v>
+      </c>
+      <c r="I18">
+        <v>0.0008633863637727903</v>
+      </c>
+      <c r="J18">
+        <v>0.0008633863637727903</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8278236666666666</v>
+      </c>
+      <c r="N18">
+        <v>2.483471</v>
+      </c>
+      <c r="O18">
+        <v>0.005468224544563193</v>
+      </c>
+      <c r="P18">
+        <v>0.005468224544563191</v>
+      </c>
+      <c r="Q18">
+        <v>0.1250598732057778</v>
+      </c>
+      <c r="R18">
+        <v>1.125538858852</v>
+      </c>
+      <c r="S18">
+        <v>4.721190505823537E-06</v>
+      </c>
+      <c r="T18">
+        <v>4.721190505823536E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1510706666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.453212</v>
+      </c>
+      <c r="I19">
+        <v>0.0008633863637727903</v>
+      </c>
+      <c r="J19">
+        <v>0.0008633863637727903</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7952806666666667</v>
+      </c>
+      <c r="N19">
+        <v>2.385842</v>
+      </c>
+      <c r="O19">
+        <v>0.005253260369800871</v>
+      </c>
+      <c r="P19">
+        <v>0.00525326036980087</v>
+      </c>
+      <c r="Q19">
+        <v>0.1201435805004444</v>
+      </c>
+      <c r="R19">
+        <v>1.081292224504</v>
+      </c>
+      <c r="S19">
+        <v>4.535593368634077E-06</v>
+      </c>
+      <c r="T19">
+        <v>4.535593368634076E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>44.73445933333333</v>
+      </c>
+      <c r="H20">
+        <v>134.203378</v>
+      </c>
+      <c r="I20">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="J20">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>139.3946303333333</v>
+      </c>
+      <c r="N20">
+        <v>418.183891</v>
+      </c>
+      <c r="O20">
+        <v>0.9207771771472824</v>
+      </c>
+      <c r="P20">
+        <v>0.9207771771472822</v>
+      </c>
+      <c r="Q20">
+        <v>6235.743421931531</v>
+      </c>
+      <c r="R20">
+        <v>56121.69079738379</v>
+      </c>
+      <c r="S20">
+        <v>0.2354083039244164</v>
+      </c>
+      <c r="T20">
+        <v>0.2354083039244164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>44.73445933333333</v>
+      </c>
+      <c r="H21">
+        <v>134.203378</v>
+      </c>
+      <c r="I21">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="J21">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.050239</v>
+      </c>
+      <c r="N21">
+        <v>0.150717</v>
+      </c>
+      <c r="O21">
+        <v>0.0003318558576616883</v>
+      </c>
+      <c r="P21">
+        <v>0.0003318558576616882</v>
+      </c>
+      <c r="Q21">
+        <v>2.247414502447333</v>
+      </c>
+      <c r="R21">
+        <v>20.226730522026</v>
+      </c>
+      <c r="S21">
+        <v>8.484313744781786E-05</v>
+      </c>
+      <c r="T21">
+        <v>8.484313744781784E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>44.73445933333333</v>
+      </c>
+      <c r="H22">
+        <v>134.203378</v>
+      </c>
+      <c r="I22">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="J22">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.220699666666667</v>
+      </c>
+      <c r="N22">
+        <v>12.662099</v>
+      </c>
+      <c r="O22">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="P22">
+        <v>0.02788001170035368</v>
+      </c>
+      <c r="Q22">
+        <v>188.8107175967135</v>
+      </c>
+      <c r="R22">
+        <v>1699.296458370422</v>
+      </c>
+      <c r="S22">
+        <v>0.007127876787853242</v>
+      </c>
+      <c r="T22">
+        <v>0.007127876787853241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>44.73445933333333</v>
+      </c>
+      <c r="H23">
+        <v>134.203378</v>
+      </c>
+      <c r="I23">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="J23">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.099343</v>
+      </c>
+      <c r="N23">
+        <v>18.298029</v>
+      </c>
+      <c r="O23">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="P23">
+        <v>0.04028947038033828</v>
+      </c>
+      <c r="Q23">
+        <v>272.8508113935513</v>
+      </c>
+      <c r="R23">
+        <v>2455.657302541962</v>
+      </c>
+      <c r="S23">
+        <v>0.01030051148490984</v>
+      </c>
+      <c r="T23">
+        <v>0.01030051148490984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>37.9038859642375</v>
-      </c>
-      <c r="H16">
-        <v>37.9038859642375</v>
-      </c>
-      <c r="I16">
-        <v>0.2429412180123998</v>
-      </c>
-      <c r="J16">
-        <v>0.2429412180123998</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.424548857538132</v>
-      </c>
-      <c r="N16">
-        <v>0.424548857538132</v>
-      </c>
-      <c r="O16">
-        <v>0.00308170848392097</v>
-      </c>
-      <c r="P16">
-        <v>0.00308170848392097</v>
-      </c>
-      <c r="Q16">
-        <v>16.09205148237267</v>
-      </c>
-      <c r="R16">
-        <v>16.09205148237267</v>
-      </c>
-      <c r="S16">
-        <v>0.0007486740126429063</v>
-      </c>
-      <c r="T16">
-        <v>0.0007486740126429063</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>44.73445933333333</v>
+      </c>
+      <c r="H24">
+        <v>134.203378</v>
+      </c>
+      <c r="I24">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="J24">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.8278236666666666</v>
+      </c>
+      <c r="N24">
+        <v>2.483471</v>
+      </c>
+      <c r="O24">
+        <v>0.005468224544563193</v>
+      </c>
+      <c r="P24">
+        <v>0.005468224544563191</v>
+      </c>
+      <c r="Q24">
+        <v>37.03224415167088</v>
+      </c>
+      <c r="R24">
+        <v>333.290197365038</v>
+      </c>
+      <c r="S24">
+        <v>0.001398020604183136</v>
+      </c>
+      <c r="T24">
+        <v>0.001398020604183135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>44.73445933333333</v>
+      </c>
+      <c r="H25">
+        <v>134.203378</v>
+      </c>
+      <c r="I25">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="J25">
+        <v>0.2556626182392462</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.7952806666666667</v>
+      </c>
+      <c r="N25">
+        <v>2.385842</v>
+      </c>
+      <c r="O25">
+        <v>0.005253260369800871</v>
+      </c>
+      <c r="P25">
+        <v>0.00525326036980087</v>
+      </c>
+      <c r="Q25">
+        <v>35.57645064158622</v>
+      </c>
+      <c r="R25">
+        <v>320.188055774276</v>
+      </c>
+      <c r="S25">
+        <v>0.001343062300435761</v>
+      </c>
+      <c r="T25">
+        <v>0.001343062300435761</v>
       </c>
     </row>
   </sheetData>
